--- a/Data/Key-Value Pairs.xlsx
+++ b/Data/Key-Value Pairs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="13350" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="13350" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="IC" sheetId="1" r:id="rId1"/>
@@ -14,15 +14,13 @@
     <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
     <sheet name="Final Frequencies" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet4" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5698" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4504" uniqueCount="508">
   <si>
     <t>datafile</t>
   </si>
@@ -7983,7 +7981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F298"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -13709,8 +13707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14088,8 +14086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I135"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="71.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17610,8 +17608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E834"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31804,5444 +31802,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F298"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>506</v>
-      </c>
-      <c r="D1" t="s">
-        <v>507</v>
-      </c>
-      <c r="E1" t="s">
-        <v>495</v>
-      </c>
-      <c r="F1" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>330</v>
-      </c>
-      <c r="F2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>330</v>
-      </c>
-      <c r="F3" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>-1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>330</v>
-      </c>
-      <c r="F4" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>331</v>
-      </c>
-      <c r="F5" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>331</v>
-      </c>
-      <c r="F6" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>-1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>331</v>
-      </c>
-      <c r="F7" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>332</v>
-      </c>
-      <c r="F8" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>332</v>
-      </c>
-      <c r="F9" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10">
-        <v>-1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>332</v>
-      </c>
-      <c r="F10" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s">
-        <v>333</v>
-      </c>
-      <c r="F11" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>333</v>
-      </c>
-      <c r="F12" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <v>-1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>333</v>
-      </c>
-      <c r="F13" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" t="s">
-        <v>334</v>
-      </c>
-      <c r="F14" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
-        <v>334</v>
-      </c>
-      <c r="F15" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16">
-        <v>-1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" t="s">
-        <v>334</v>
-      </c>
-      <c r="F16" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17">
-        <v>-2</v>
-      </c>
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" t="s">
-        <v>334</v>
-      </c>
-      <c r="F17" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" t="s">
-        <v>335</v>
-      </c>
-      <c r="F18" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" t="s">
-        <v>335</v>
-      </c>
-      <c r="F19" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20">
-        <v>-1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" t="s">
-        <v>335</v>
-      </c>
-      <c r="F20" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21">
-        <v>-2</v>
-      </c>
-      <c r="D21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" t="s">
-        <v>335</v>
-      </c>
-      <c r="F21" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" t="s">
-        <v>336</v>
-      </c>
-      <c r="F22" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" t="s">
-        <v>336</v>
-      </c>
-      <c r="F23" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24">
-        <v>-1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" t="s">
-        <v>336</v>
-      </c>
-      <c r="F24" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25">
-        <v>-2</v>
-      </c>
-      <c r="D25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" t="s">
-        <v>336</v>
-      </c>
-      <c r="F25" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" t="s">
-        <v>337</v>
-      </c>
-      <c r="F26" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" t="s">
-        <v>337</v>
-      </c>
-      <c r="F27" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28">
-        <v>-1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" t="s">
-        <v>337</v>
-      </c>
-      <c r="F28" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29">
-        <v>-2</v>
-      </c>
-      <c r="D29" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" t="s">
-        <v>337</v>
-      </c>
-      <c r="F29" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" t="s">
-        <v>338</v>
-      </c>
-      <c r="F30" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" t="s">
-        <v>338</v>
-      </c>
-      <c r="F31" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32">
-        <v>-1</v>
-      </c>
-      <c r="D32" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" t="s">
-        <v>338</v>
-      </c>
-      <c r="F32" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" t="s">
-        <v>339</v>
-      </c>
-      <c r="F33" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" t="s">
-        <v>339</v>
-      </c>
-      <c r="F34" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35">
-        <v>-1</v>
-      </c>
-      <c r="D35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" t="s">
-        <v>339</v>
-      </c>
-      <c r="F35" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36">
-        <v>-2</v>
-      </c>
-      <c r="D36" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36" t="s">
-        <v>339</v>
-      </c>
-      <c r="F36" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" t="s">
-        <v>340</v>
-      </c>
-      <c r="F37" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" t="s">
-        <v>21</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" t="s">
-        <v>340</v>
-      </c>
-      <c r="F38" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39">
-        <v>-1</v>
-      </c>
-      <c r="D39" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" t="s">
-        <v>340</v>
-      </c>
-      <c r="F39" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40">
-        <v>-2</v>
-      </c>
-      <c r="D40" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" t="s">
-        <v>340</v>
-      </c>
-      <c r="F40" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" t="s">
-        <v>341</v>
-      </c>
-      <c r="F41" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" t="s">
-        <v>22</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42" t="s">
-        <v>341</v>
-      </c>
-      <c r="F42" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" t="s">
-        <v>22</v>
-      </c>
-      <c r="C43">
-        <v>-1</v>
-      </c>
-      <c r="D43" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" t="s">
-        <v>341</v>
-      </c>
-      <c r="F43" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" t="s">
-        <v>22</v>
-      </c>
-      <c r="C44">
-        <v>-2</v>
-      </c>
-      <c r="D44" t="s">
-        <v>15</v>
-      </c>
-      <c r="E44" t="s">
-        <v>341</v>
-      </c>
-      <c r="F44" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45" t="s">
-        <v>23</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46" t="s">
-        <v>23</v>
-      </c>
-      <c r="C46">
-        <v>2</v>
-      </c>
-      <c r="D46" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>5</v>
-      </c>
-      <c r="B47" t="s">
-        <v>23</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>5</v>
-      </c>
-      <c r="B48" t="s">
-        <v>23</v>
-      </c>
-      <c r="C48">
-        <v>-1</v>
-      </c>
-      <c r="D48" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>5</v>
-      </c>
-      <c r="B49" t="s">
-        <v>23</v>
-      </c>
-      <c r="C49">
-        <v>-2</v>
-      </c>
-      <c r="D49" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50" t="s">
-        <v>24</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50" t="s">
-        <v>25</v>
-      </c>
-      <c r="E50" t="s">
-        <v>342</v>
-      </c>
-      <c r="F50" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>5</v>
-      </c>
-      <c r="B51" t="s">
-        <v>24</v>
-      </c>
-      <c r="C51">
-        <v>2</v>
-      </c>
-      <c r="D51" t="s">
-        <v>26</v>
-      </c>
-      <c r="E51" t="s">
-        <v>342</v>
-      </c>
-      <c r="F51" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>5</v>
-      </c>
-      <c r="B52" t="s">
-        <v>24</v>
-      </c>
-      <c r="C52">
-        <v>3</v>
-      </c>
-      <c r="D52" t="s">
-        <v>27</v>
-      </c>
-      <c r="E52" t="s">
-        <v>342</v>
-      </c>
-      <c r="F52" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>5</v>
-      </c>
-      <c r="B53" t="s">
-        <v>24</v>
-      </c>
-      <c r="C53">
-        <v>4</v>
-      </c>
-      <c r="D53" t="s">
-        <v>28</v>
-      </c>
-      <c r="E53" t="s">
-        <v>342</v>
-      </c>
-      <c r="F53" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>5</v>
-      </c>
-      <c r="B54" t="s">
-        <v>24</v>
-      </c>
-      <c r="C54">
-        <v>-1</v>
-      </c>
-      <c r="D54" t="s">
-        <v>9</v>
-      </c>
-      <c r="E54" t="s">
-        <v>342</v>
-      </c>
-      <c r="F54" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>5</v>
-      </c>
-      <c r="B55" t="s">
-        <v>24</v>
-      </c>
-      <c r="C55">
-        <v>-2</v>
-      </c>
-      <c r="D55" t="s">
-        <v>15</v>
-      </c>
-      <c r="E55" t="s">
-        <v>342</v>
-      </c>
-      <c r="F55" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>5</v>
-      </c>
-      <c r="B56" t="s">
-        <v>29</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56" t="s">
-        <v>25</v>
-      </c>
-      <c r="E56" t="s">
-        <v>343</v>
-      </c>
-      <c r="F56" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>5</v>
-      </c>
-      <c r="B57" t="s">
-        <v>29</v>
-      </c>
-      <c r="C57">
-        <v>2</v>
-      </c>
-      <c r="D57" t="s">
-        <v>26</v>
-      </c>
-      <c r="E57" t="s">
-        <v>343</v>
-      </c>
-      <c r="F57" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>5</v>
-      </c>
-      <c r="B58" t="s">
-        <v>29</v>
-      </c>
-      <c r="C58">
-        <v>3</v>
-      </c>
-      <c r="D58" t="s">
-        <v>27</v>
-      </c>
-      <c r="E58" t="s">
-        <v>343</v>
-      </c>
-      <c r="F58" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>5</v>
-      </c>
-      <c r="B59" t="s">
-        <v>29</v>
-      </c>
-      <c r="C59">
-        <v>4</v>
-      </c>
-      <c r="D59" t="s">
-        <v>28</v>
-      </c>
-      <c r="E59" t="s">
-        <v>343</v>
-      </c>
-      <c r="F59" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>5</v>
-      </c>
-      <c r="B60" t="s">
-        <v>29</v>
-      </c>
-      <c r="C60">
-        <v>-1</v>
-      </c>
-      <c r="D60" t="s">
-        <v>9</v>
-      </c>
-      <c r="E60" t="s">
-        <v>343</v>
-      </c>
-      <c r="F60" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>5</v>
-      </c>
-      <c r="B61" t="s">
-        <v>29</v>
-      </c>
-      <c r="C61">
-        <v>-2</v>
-      </c>
-      <c r="D61" t="s">
-        <v>15</v>
-      </c>
-      <c r="E61" t="s">
-        <v>343</v>
-      </c>
-      <c r="F61" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>5</v>
-      </c>
-      <c r="B62" t="s">
-        <v>30</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62" t="s">
-        <v>25</v>
-      </c>
-      <c r="E62" t="s">
-        <v>344</v>
-      </c>
-      <c r="F62" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>5</v>
-      </c>
-      <c r="B63" t="s">
-        <v>30</v>
-      </c>
-      <c r="C63">
-        <v>2</v>
-      </c>
-      <c r="D63" t="s">
-        <v>26</v>
-      </c>
-      <c r="E63" t="s">
-        <v>344</v>
-      </c>
-      <c r="F63" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>5</v>
-      </c>
-      <c r="B64" t="s">
-        <v>30</v>
-      </c>
-      <c r="C64">
-        <v>3</v>
-      </c>
-      <c r="D64" t="s">
-        <v>27</v>
-      </c>
-      <c r="E64" t="s">
-        <v>344</v>
-      </c>
-      <c r="F64" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>5</v>
-      </c>
-      <c r="B65" t="s">
-        <v>30</v>
-      </c>
-      <c r="C65">
-        <v>4</v>
-      </c>
-      <c r="D65" t="s">
-        <v>28</v>
-      </c>
-      <c r="E65" t="s">
-        <v>344</v>
-      </c>
-      <c r="F65" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>5</v>
-      </c>
-      <c r="B66" t="s">
-        <v>30</v>
-      </c>
-      <c r="C66">
-        <v>-1</v>
-      </c>
-      <c r="D66" t="s">
-        <v>9</v>
-      </c>
-      <c r="E66" t="s">
-        <v>344</v>
-      </c>
-      <c r="F66" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>5</v>
-      </c>
-      <c r="B67" t="s">
-        <v>30</v>
-      </c>
-      <c r="C67">
-        <v>-2</v>
-      </c>
-      <c r="D67" t="s">
-        <v>15</v>
-      </c>
-      <c r="E67" t="s">
-        <v>344</v>
-      </c>
-      <c r="F67" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>5</v>
-      </c>
-      <c r="B68" t="s">
-        <v>31</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68" t="s">
-        <v>25</v>
-      </c>
-      <c r="E68" t="s">
-        <v>345</v>
-      </c>
-      <c r="F68" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>5</v>
-      </c>
-      <c r="B69" t="s">
-        <v>31</v>
-      </c>
-      <c r="C69">
-        <v>2</v>
-      </c>
-      <c r="D69" t="s">
-        <v>26</v>
-      </c>
-      <c r="E69" t="s">
-        <v>345</v>
-      </c>
-      <c r="F69" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>5</v>
-      </c>
-      <c r="B70" t="s">
-        <v>31</v>
-      </c>
-      <c r="C70">
-        <v>3</v>
-      </c>
-      <c r="D70" t="s">
-        <v>27</v>
-      </c>
-      <c r="E70" t="s">
-        <v>345</v>
-      </c>
-      <c r="F70" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>5</v>
-      </c>
-      <c r="B71" t="s">
-        <v>31</v>
-      </c>
-      <c r="C71">
-        <v>4</v>
-      </c>
-      <c r="D71" t="s">
-        <v>28</v>
-      </c>
-      <c r="E71" t="s">
-        <v>345</v>
-      </c>
-      <c r="F71" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>5</v>
-      </c>
-      <c r="B72" t="s">
-        <v>31</v>
-      </c>
-      <c r="C72">
-        <v>-1</v>
-      </c>
-      <c r="D72" t="s">
-        <v>9</v>
-      </c>
-      <c r="E72" t="s">
-        <v>345</v>
-      </c>
-      <c r="F72" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>5</v>
-      </c>
-      <c r="B73" t="s">
-        <v>31</v>
-      </c>
-      <c r="C73">
-        <v>-2</v>
-      </c>
-      <c r="D73" t="s">
-        <v>15</v>
-      </c>
-      <c r="E73" t="s">
-        <v>345</v>
-      </c>
-      <c r="F73" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>5</v>
-      </c>
-      <c r="B74" t="s">
-        <v>32</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74" t="s">
-        <v>25</v>
-      </c>
-      <c r="E74" t="s">
-        <v>346</v>
-      </c>
-      <c r="F74" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>5</v>
-      </c>
-      <c r="B75" t="s">
-        <v>32</v>
-      </c>
-      <c r="C75">
-        <v>2</v>
-      </c>
-      <c r="D75" t="s">
-        <v>26</v>
-      </c>
-      <c r="E75" t="s">
-        <v>346</v>
-      </c>
-      <c r="F75" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>5</v>
-      </c>
-      <c r="B76" t="s">
-        <v>32</v>
-      </c>
-      <c r="C76">
-        <v>3</v>
-      </c>
-      <c r="D76" t="s">
-        <v>27</v>
-      </c>
-      <c r="E76" t="s">
-        <v>346</v>
-      </c>
-      <c r="F76" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>5</v>
-      </c>
-      <c r="B77" t="s">
-        <v>32</v>
-      </c>
-      <c r="C77">
-        <v>4</v>
-      </c>
-      <c r="D77" t="s">
-        <v>28</v>
-      </c>
-      <c r="E77" t="s">
-        <v>346</v>
-      </c>
-      <c r="F77" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>5</v>
-      </c>
-      <c r="B78" t="s">
-        <v>32</v>
-      </c>
-      <c r="C78">
-        <v>-1</v>
-      </c>
-      <c r="D78" t="s">
-        <v>9</v>
-      </c>
-      <c r="E78" t="s">
-        <v>346</v>
-      </c>
-      <c r="F78" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>5</v>
-      </c>
-      <c r="B79" t="s">
-        <v>32</v>
-      </c>
-      <c r="C79">
-        <v>-2</v>
-      </c>
-      <c r="D79" t="s">
-        <v>15</v>
-      </c>
-      <c r="E79" t="s">
-        <v>346</v>
-      </c>
-      <c r="F79" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>5</v>
-      </c>
-      <c r="B80" t="s">
-        <v>33</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-      <c r="D80" t="s">
-        <v>34</v>
-      </c>
-      <c r="E80" t="s">
-        <v>381</v>
-      </c>
-      <c r="F80" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>5</v>
-      </c>
-      <c r="B81" t="s">
-        <v>33</v>
-      </c>
-      <c r="C81">
-        <v>0</v>
-      </c>
-      <c r="D81" t="s">
-        <v>14</v>
-      </c>
-      <c r="E81" t="s">
-        <v>381</v>
-      </c>
-      <c r="F81" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>5</v>
-      </c>
-      <c r="B82" t="s">
-        <v>33</v>
-      </c>
-      <c r="C82">
-        <v>-1</v>
-      </c>
-      <c r="D82" t="s">
-        <v>9</v>
-      </c>
-      <c r="E82" t="s">
-        <v>381</v>
-      </c>
-      <c r="F82" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>5</v>
-      </c>
-      <c r="B83" t="s">
-        <v>33</v>
-      </c>
-      <c r="C83">
-        <v>-2</v>
-      </c>
-      <c r="D83" t="s">
-        <v>15</v>
-      </c>
-      <c r="E83" t="s">
-        <v>381</v>
-      </c>
-      <c r="F83" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>5</v>
-      </c>
-      <c r="B84" t="s">
-        <v>35</v>
-      </c>
-      <c r="C84">
-        <v>1</v>
-      </c>
-      <c r="D84" t="s">
-        <v>34</v>
-      </c>
-      <c r="E84" t="s">
-        <v>382</v>
-      </c>
-      <c r="F84" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>5</v>
-      </c>
-      <c r="B85" t="s">
-        <v>35</v>
-      </c>
-      <c r="C85">
-        <v>0</v>
-      </c>
-      <c r="D85" t="s">
-        <v>14</v>
-      </c>
-      <c r="E85" t="s">
-        <v>382</v>
-      </c>
-      <c r="F85" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>5</v>
-      </c>
-      <c r="B86" t="s">
-        <v>35</v>
-      </c>
-      <c r="C86">
-        <v>-1</v>
-      </c>
-      <c r="D86" t="s">
-        <v>9</v>
-      </c>
-      <c r="E86" t="s">
-        <v>382</v>
-      </c>
-      <c r="F86" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>5</v>
-      </c>
-      <c r="B87" t="s">
-        <v>35</v>
-      </c>
-      <c r="C87">
-        <v>-2</v>
-      </c>
-      <c r="D87" t="s">
-        <v>15</v>
-      </c>
-      <c r="E87" t="s">
-        <v>382</v>
-      </c>
-      <c r="F87" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>5</v>
-      </c>
-      <c r="B88" t="s">
-        <v>36</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88" t="s">
-        <v>34</v>
-      </c>
-      <c r="E88" t="s">
-        <v>383</v>
-      </c>
-      <c r="F88" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>5</v>
-      </c>
-      <c r="B89" t="s">
-        <v>36</v>
-      </c>
-      <c r="C89">
-        <v>0</v>
-      </c>
-      <c r="D89" t="s">
-        <v>14</v>
-      </c>
-      <c r="E89" t="s">
-        <v>383</v>
-      </c>
-      <c r="F89" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>5</v>
-      </c>
-      <c r="B90" t="s">
-        <v>36</v>
-      </c>
-      <c r="C90">
-        <v>-1</v>
-      </c>
-      <c r="D90" t="s">
-        <v>9</v>
-      </c>
-      <c r="E90" t="s">
-        <v>383</v>
-      </c>
-      <c r="F90" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>5</v>
-      </c>
-      <c r="B91" t="s">
-        <v>36</v>
-      </c>
-      <c r="C91">
-        <v>-2</v>
-      </c>
-      <c r="D91" t="s">
-        <v>15</v>
-      </c>
-      <c r="E91" t="s">
-        <v>383</v>
-      </c>
-      <c r="F91" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>5</v>
-      </c>
-      <c r="B92" t="s">
-        <v>37</v>
-      </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
-      <c r="D92" t="s">
-        <v>34</v>
-      </c>
-      <c r="E92" t="s">
-        <v>384</v>
-      </c>
-      <c r="F92" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>5</v>
-      </c>
-      <c r="B93" t="s">
-        <v>37</v>
-      </c>
-      <c r="C93">
-        <v>0</v>
-      </c>
-      <c r="D93" t="s">
-        <v>14</v>
-      </c>
-      <c r="E93" t="s">
-        <v>384</v>
-      </c>
-      <c r="F93" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>5</v>
-      </c>
-      <c r="B94" t="s">
-        <v>37</v>
-      </c>
-      <c r="C94">
-        <v>-1</v>
-      </c>
-      <c r="D94" t="s">
-        <v>9</v>
-      </c>
-      <c r="E94" t="s">
-        <v>384</v>
-      </c>
-      <c r="F94" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>5</v>
-      </c>
-      <c r="B95" t="s">
-        <v>37</v>
-      </c>
-      <c r="C95">
-        <v>-2</v>
-      </c>
-      <c r="D95" t="s">
-        <v>15</v>
-      </c>
-      <c r="E95" t="s">
-        <v>384</v>
-      </c>
-      <c r="F95" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>5</v>
-      </c>
-      <c r="B96" t="s">
-        <v>38</v>
-      </c>
-      <c r="C96">
-        <v>1</v>
-      </c>
-      <c r="D96" t="s">
-        <v>34</v>
-      </c>
-      <c r="E96" t="s">
-        <v>385</v>
-      </c>
-      <c r="F96" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>5</v>
-      </c>
-      <c r="B97" t="s">
-        <v>38</v>
-      </c>
-      <c r="C97">
-        <v>0</v>
-      </c>
-      <c r="D97" t="s">
-        <v>14</v>
-      </c>
-      <c r="E97" t="s">
-        <v>385</v>
-      </c>
-      <c r="F97" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>5</v>
-      </c>
-      <c r="B98" t="s">
-        <v>38</v>
-      </c>
-      <c r="C98">
-        <v>-1</v>
-      </c>
-      <c r="D98" t="s">
-        <v>9</v>
-      </c>
-      <c r="E98" t="s">
-        <v>385</v>
-      </c>
-      <c r="F98" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>5</v>
-      </c>
-      <c r="B99" t="s">
-        <v>38</v>
-      </c>
-      <c r="C99">
-        <v>-2</v>
-      </c>
-      <c r="D99" t="s">
-        <v>15</v>
-      </c>
-      <c r="E99" t="s">
-        <v>385</v>
-      </c>
-      <c r="F99" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>5</v>
-      </c>
-      <c r="B100" t="s">
-        <v>39</v>
-      </c>
-      <c r="C100">
-        <v>1</v>
-      </c>
-      <c r="D100" t="s">
-        <v>34</v>
-      </c>
-      <c r="E100" t="s">
-        <v>386</v>
-      </c>
-      <c r="F100" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>5</v>
-      </c>
-      <c r="B101" t="s">
-        <v>39</v>
-      </c>
-      <c r="C101">
-        <v>0</v>
-      </c>
-      <c r="D101" t="s">
-        <v>14</v>
-      </c>
-      <c r="E101" t="s">
-        <v>386</v>
-      </c>
-      <c r="F101" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>5</v>
-      </c>
-      <c r="B102" t="s">
-        <v>39</v>
-      </c>
-      <c r="C102">
-        <v>-1</v>
-      </c>
-      <c r="D102" t="s">
-        <v>9</v>
-      </c>
-      <c r="E102" t="s">
-        <v>386</v>
-      </c>
-      <c r="F102" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>5</v>
-      </c>
-      <c r="B103" t="s">
-        <v>39</v>
-      </c>
-      <c r="C103">
-        <v>-2</v>
-      </c>
-      <c r="D103" t="s">
-        <v>15</v>
-      </c>
-      <c r="E103" t="s">
-        <v>386</v>
-      </c>
-      <c r="F103" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>5</v>
-      </c>
-      <c r="B104" t="s">
-        <v>40</v>
-      </c>
-      <c r="C104">
-        <v>1</v>
-      </c>
-      <c r="D104" t="s">
-        <v>41</v>
-      </c>
-      <c r="E104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>5</v>
-      </c>
-      <c r="B105" t="s">
-        <v>40</v>
-      </c>
-      <c r="C105">
-        <v>2</v>
-      </c>
-      <c r="D105" t="s">
-        <v>42</v>
-      </c>
-      <c r="E105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>5</v>
-      </c>
-      <c r="B106" t="s">
-        <v>40</v>
-      </c>
-      <c r="C106">
-        <v>3</v>
-      </c>
-      <c r="D106" t="s">
-        <v>43</v>
-      </c>
-      <c r="E106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>5</v>
-      </c>
-      <c r="B107" t="s">
-        <v>40</v>
-      </c>
-      <c r="C107">
-        <v>4</v>
-      </c>
-      <c r="D107" t="s">
-        <v>44</v>
-      </c>
-      <c r="E107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>5</v>
-      </c>
-      <c r="B108" t="s">
-        <v>40</v>
-      </c>
-      <c r="C108">
-        <v>5</v>
-      </c>
-      <c r="D108" t="s">
-        <v>45</v>
-      </c>
-      <c r="E108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>5</v>
-      </c>
-      <c r="B109" t="s">
-        <v>40</v>
-      </c>
-      <c r="C109">
-        <v>6</v>
-      </c>
-      <c r="D109" t="s">
-        <v>46</v>
-      </c>
-      <c r="E109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>5</v>
-      </c>
-      <c r="B110" t="s">
-        <v>40</v>
-      </c>
-      <c r="C110">
-        <v>7</v>
-      </c>
-      <c r="D110" t="s">
-        <v>47</v>
-      </c>
-      <c r="E110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>5</v>
-      </c>
-      <c r="B111" t="s">
-        <v>40</v>
-      </c>
-      <c r="C111">
-        <v>-2</v>
-      </c>
-      <c r="D111" t="s">
-        <v>15</v>
-      </c>
-      <c r="E111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>4</v>
-      </c>
-      <c r="B112" t="s">
-        <v>53</v>
-      </c>
-      <c r="C112" t="s">
-        <v>51</v>
-      </c>
-      <c r="D112" t="s">
-        <v>50</v>
-      </c>
-      <c r="E112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>4</v>
-      </c>
-      <c r="B113" t="s">
-        <v>53</v>
-      </c>
-      <c r="C113" t="s">
-        <v>54</v>
-      </c>
-      <c r="D113" t="s">
-        <v>52</v>
-      </c>
-      <c r="E113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>4</v>
-      </c>
-      <c r="B114" t="s">
-        <v>53</v>
-      </c>
-      <c r="C114" t="s">
-        <v>56</v>
-      </c>
-      <c r="D114" t="s">
-        <v>55</v>
-      </c>
-      <c r="E114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>4</v>
-      </c>
-      <c r="B115" t="s">
-        <v>53</v>
-      </c>
-      <c r="C115" t="s">
-        <v>58</v>
-      </c>
-      <c r="D115" t="s">
-        <v>57</v>
-      </c>
-      <c r="E115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>4</v>
-      </c>
-      <c r="B116" t="s">
-        <v>53</v>
-      </c>
-      <c r="C116" t="s">
-        <v>60</v>
-      </c>
-      <c r="D116" t="s">
-        <v>59</v>
-      </c>
-      <c r="E116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>4</v>
-      </c>
-      <c r="B117" t="s">
-        <v>53</v>
-      </c>
-      <c r="C117" t="s">
-        <v>62</v>
-      </c>
-      <c r="D117" t="s">
-        <v>61</v>
-      </c>
-      <c r="E117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>4</v>
-      </c>
-      <c r="B118" t="s">
-        <v>53</v>
-      </c>
-      <c r="C118" t="s">
-        <v>64</v>
-      </c>
-      <c r="D118" t="s">
-        <v>63</v>
-      </c>
-      <c r="E118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>4</v>
-      </c>
-      <c r="B119" t="s">
-        <v>53</v>
-      </c>
-      <c r="C119" t="s">
-        <v>66</v>
-      </c>
-      <c r="D119" t="s">
-        <v>65</v>
-      </c>
-      <c r="E119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>4</v>
-      </c>
-      <c r="B120" t="s">
-        <v>53</v>
-      </c>
-      <c r="C120" t="s">
-        <v>68</v>
-      </c>
-      <c r="D120" t="s">
-        <v>67</v>
-      </c>
-      <c r="E120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>4</v>
-      </c>
-      <c r="B121" t="s">
-        <v>53</v>
-      </c>
-      <c r="C121" t="s">
-        <v>70</v>
-      </c>
-      <c r="D121" t="s">
-        <v>69</v>
-      </c>
-      <c r="E121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>4</v>
-      </c>
-      <c r="B122" t="s">
-        <v>53</v>
-      </c>
-      <c r="C122" t="s">
-        <v>72</v>
-      </c>
-      <c r="D122" t="s">
-        <v>71</v>
-      </c>
-      <c r="E122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>4</v>
-      </c>
-      <c r="B123" t="s">
-        <v>53</v>
-      </c>
-      <c r="C123" t="s">
-        <v>74</v>
-      </c>
-      <c r="D123" t="s">
-        <v>73</v>
-      </c>
-      <c r="E123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>4</v>
-      </c>
-      <c r="B124" t="s">
-        <v>53</v>
-      </c>
-      <c r="C124" t="s">
-        <v>76</v>
-      </c>
-      <c r="D124" t="s">
-        <v>75</v>
-      </c>
-      <c r="E124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>4</v>
-      </c>
-      <c r="B125" t="s">
-        <v>53</v>
-      </c>
-      <c r="C125" t="s">
-        <v>78</v>
-      </c>
-      <c r="D125" t="s">
-        <v>77</v>
-      </c>
-      <c r="E125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>4</v>
-      </c>
-      <c r="B126" t="s">
-        <v>53</v>
-      </c>
-      <c r="C126" t="s">
-        <v>80</v>
-      </c>
-      <c r="D126" t="s">
-        <v>79</v>
-      </c>
-      <c r="E126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>4</v>
-      </c>
-      <c r="B127" t="s">
-        <v>53</v>
-      </c>
-      <c r="C127" t="s">
-        <v>82</v>
-      </c>
-      <c r="D127" t="s">
-        <v>81</v>
-      </c>
-      <c r="E127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>4</v>
-      </c>
-      <c r="B128" t="s">
-        <v>53</v>
-      </c>
-      <c r="C128" t="s">
-        <v>84</v>
-      </c>
-      <c r="D128" t="s">
-        <v>83</v>
-      </c>
-      <c r="E128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>4</v>
-      </c>
-      <c r="B129" t="s">
-        <v>53</v>
-      </c>
-      <c r="C129" t="s">
-        <v>86</v>
-      </c>
-      <c r="D129" t="s">
-        <v>85</v>
-      </c>
-      <c r="E129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>4</v>
-      </c>
-      <c r="B130" t="s">
-        <v>53</v>
-      </c>
-      <c r="C130" t="s">
-        <v>88</v>
-      </c>
-      <c r="D130" t="s">
-        <v>87</v>
-      </c>
-      <c r="E130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>4</v>
-      </c>
-      <c r="B131" t="s">
-        <v>53</v>
-      </c>
-      <c r="C131" t="s">
-        <v>90</v>
-      </c>
-      <c r="D131" t="s">
-        <v>89</v>
-      </c>
-      <c r="E131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>4</v>
-      </c>
-      <c r="B132" t="s">
-        <v>53</v>
-      </c>
-      <c r="C132" t="s">
-        <v>92</v>
-      </c>
-      <c r="D132" t="s">
-        <v>91</v>
-      </c>
-      <c r="E132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>4</v>
-      </c>
-      <c r="B133" t="s">
-        <v>53</v>
-      </c>
-      <c r="C133" t="s">
-        <v>94</v>
-      </c>
-      <c r="D133" t="s">
-        <v>93</v>
-      </c>
-      <c r="E133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>4</v>
-      </c>
-      <c r="B134" t="s">
-        <v>53</v>
-      </c>
-      <c r="C134" t="s">
-        <v>96</v>
-      </c>
-      <c r="D134" t="s">
-        <v>95</v>
-      </c>
-      <c r="E134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>4</v>
-      </c>
-      <c r="B135" t="s">
-        <v>53</v>
-      </c>
-      <c r="C135" t="s">
-        <v>98</v>
-      </c>
-      <c r="D135" t="s">
-        <v>97</v>
-      </c>
-      <c r="E135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>4</v>
-      </c>
-      <c r="B136" t="s">
-        <v>53</v>
-      </c>
-      <c r="C136" t="s">
-        <v>100</v>
-      </c>
-      <c r="D136" t="s">
-        <v>99</v>
-      </c>
-      <c r="E136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>4</v>
-      </c>
-      <c r="B137" t="s">
-        <v>53</v>
-      </c>
-      <c r="C137" t="s">
-        <v>102</v>
-      </c>
-      <c r="D137" t="s">
-        <v>101</v>
-      </c>
-      <c r="E137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>4</v>
-      </c>
-      <c r="B138" t="s">
-        <v>53</v>
-      </c>
-      <c r="C138" t="s">
-        <v>104</v>
-      </c>
-      <c r="D138" t="s">
-        <v>103</v>
-      </c>
-      <c r="E138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>4</v>
-      </c>
-      <c r="B139" t="s">
-        <v>53</v>
-      </c>
-      <c r="C139" t="s">
-        <v>106</v>
-      </c>
-      <c r="D139" t="s">
-        <v>105</v>
-      </c>
-      <c r="E139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>4</v>
-      </c>
-      <c r="B140" t="s">
-        <v>53</v>
-      </c>
-      <c r="C140" t="s">
-        <v>108</v>
-      </c>
-      <c r="D140" t="s">
-        <v>107</v>
-      </c>
-      <c r="E140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>4</v>
-      </c>
-      <c r="B141" t="s">
-        <v>53</v>
-      </c>
-      <c r="C141" t="s">
-        <v>110</v>
-      </c>
-      <c r="D141" t="s">
-        <v>109</v>
-      </c>
-      <c r="E141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>4</v>
-      </c>
-      <c r="B142" t="s">
-        <v>53</v>
-      </c>
-      <c r="C142" t="s">
-        <v>112</v>
-      </c>
-      <c r="D142" t="s">
-        <v>111</v>
-      </c>
-      <c r="E142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>4</v>
-      </c>
-      <c r="B143" t="s">
-        <v>53</v>
-      </c>
-      <c r="C143" t="s">
-        <v>114</v>
-      </c>
-      <c r="D143" t="s">
-        <v>113</v>
-      </c>
-      <c r="E143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>4</v>
-      </c>
-      <c r="B144" t="s">
-        <v>53</v>
-      </c>
-      <c r="C144" t="s">
-        <v>116</v>
-      </c>
-      <c r="D144" t="s">
-        <v>115</v>
-      </c>
-      <c r="E144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>4</v>
-      </c>
-      <c r="B145" t="s">
-        <v>53</v>
-      </c>
-      <c r="C145" t="s">
-        <v>118</v>
-      </c>
-      <c r="D145" t="s">
-        <v>117</v>
-      </c>
-      <c r="E145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>4</v>
-      </c>
-      <c r="B146" t="s">
-        <v>53</v>
-      </c>
-      <c r="C146" t="s">
-        <v>120</v>
-      </c>
-      <c r="D146" t="s">
-        <v>119</v>
-      </c>
-      <c r="E146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>4</v>
-      </c>
-      <c r="B147" t="s">
-        <v>53</v>
-      </c>
-      <c r="C147" t="s">
-        <v>122</v>
-      </c>
-      <c r="D147" t="s">
-        <v>121</v>
-      </c>
-      <c r="E147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>4</v>
-      </c>
-      <c r="B148" t="s">
-        <v>53</v>
-      </c>
-      <c r="C148" t="s">
-        <v>124</v>
-      </c>
-      <c r="D148" t="s">
-        <v>123</v>
-      </c>
-      <c r="E148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>4</v>
-      </c>
-      <c r="B149" t="s">
-        <v>53</v>
-      </c>
-      <c r="C149" t="s">
-        <v>126</v>
-      </c>
-      <c r="D149" t="s">
-        <v>125</v>
-      </c>
-      <c r="E149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>4</v>
-      </c>
-      <c r="B150" t="s">
-        <v>53</v>
-      </c>
-      <c r="C150" t="s">
-        <v>128</v>
-      </c>
-      <c r="D150" t="s">
-        <v>127</v>
-      </c>
-      <c r="E150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>4</v>
-      </c>
-      <c r="B151" t="s">
-        <v>53</v>
-      </c>
-      <c r="C151" t="s">
-        <v>130</v>
-      </c>
-      <c r="D151" t="s">
-        <v>129</v>
-      </c>
-      <c r="E151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>4</v>
-      </c>
-      <c r="B152" t="s">
-        <v>53</v>
-      </c>
-      <c r="C152" t="s">
-        <v>132</v>
-      </c>
-      <c r="D152" t="s">
-        <v>131</v>
-      </c>
-      <c r="E152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>4</v>
-      </c>
-      <c r="B153" t="s">
-        <v>53</v>
-      </c>
-      <c r="C153" t="s">
-        <v>134</v>
-      </c>
-      <c r="D153" t="s">
-        <v>133</v>
-      </c>
-      <c r="E153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>4</v>
-      </c>
-      <c r="B154" t="s">
-        <v>53</v>
-      </c>
-      <c r="C154" t="s">
-        <v>136</v>
-      </c>
-      <c r="D154" t="s">
-        <v>135</v>
-      </c>
-      <c r="E154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>4</v>
-      </c>
-      <c r="B155" t="s">
-        <v>53</v>
-      </c>
-      <c r="C155" t="s">
-        <v>138</v>
-      </c>
-      <c r="D155" t="s">
-        <v>137</v>
-      </c>
-      <c r="E155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>4</v>
-      </c>
-      <c r="B156" t="s">
-        <v>53</v>
-      </c>
-      <c r="C156" t="s">
-        <v>140</v>
-      </c>
-      <c r="D156" t="s">
-        <v>139</v>
-      </c>
-      <c r="E156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>4</v>
-      </c>
-      <c r="B157" t="s">
-        <v>53</v>
-      </c>
-      <c r="C157" t="s">
-        <v>142</v>
-      </c>
-      <c r="D157" t="s">
-        <v>141</v>
-      </c>
-      <c r="E157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>4</v>
-      </c>
-      <c r="B158" t="s">
-        <v>53</v>
-      </c>
-      <c r="C158" t="s">
-        <v>144</v>
-      </c>
-      <c r="D158" t="s">
-        <v>143</v>
-      </c>
-      <c r="E158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>4</v>
-      </c>
-      <c r="B159" t="s">
-        <v>53</v>
-      </c>
-      <c r="C159" t="s">
-        <v>146</v>
-      </c>
-      <c r="D159" t="s">
-        <v>145</v>
-      </c>
-      <c r="E159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>4</v>
-      </c>
-      <c r="B160" t="s">
-        <v>53</v>
-      </c>
-      <c r="C160" t="s">
-        <v>148</v>
-      </c>
-      <c r="D160" t="s">
-        <v>147</v>
-      </c>
-      <c r="E160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>4</v>
-      </c>
-      <c r="B161" t="s">
-        <v>53</v>
-      </c>
-      <c r="C161" t="s">
-        <v>150</v>
-      </c>
-      <c r="D161" t="s">
-        <v>149</v>
-      </c>
-      <c r="E161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>4</v>
-      </c>
-      <c r="B162" t="s">
-        <v>53</v>
-      </c>
-      <c r="C162" t="s">
-        <v>152</v>
-      </c>
-      <c r="D162" t="s">
-        <v>151</v>
-      </c>
-      <c r="E162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>4</v>
-      </c>
-      <c r="B163" t="s">
-        <v>53</v>
-      </c>
-      <c r="C163" t="s">
-        <v>154</v>
-      </c>
-      <c r="D163" t="s">
-        <v>153</v>
-      </c>
-      <c r="E163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>4</v>
-      </c>
-      <c r="B164" t="s">
-        <v>53</v>
-      </c>
-      <c r="C164" t="s">
-        <v>156</v>
-      </c>
-      <c r="D164" t="s">
-        <v>155</v>
-      </c>
-      <c r="E164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>4</v>
-      </c>
-      <c r="B165" t="s">
-        <v>53</v>
-      </c>
-      <c r="C165" t="s">
-        <v>158</v>
-      </c>
-      <c r="D165" t="s">
-        <v>157</v>
-      </c>
-      <c r="E165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>4</v>
-      </c>
-      <c r="B166" t="s">
-        <v>53</v>
-      </c>
-      <c r="C166" t="s">
-        <v>160</v>
-      </c>
-      <c r="D166" t="s">
-        <v>159</v>
-      </c>
-      <c r="E166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>4</v>
-      </c>
-      <c r="B167" t="s">
-        <v>53</v>
-      </c>
-      <c r="C167" t="s">
-        <v>162</v>
-      </c>
-      <c r="D167" t="s">
-        <v>161</v>
-      </c>
-      <c r="E167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>4</v>
-      </c>
-      <c r="B168" t="s">
-        <v>53</v>
-      </c>
-      <c r="C168" t="s">
-        <v>164</v>
-      </c>
-      <c r="D168" t="s">
-        <v>163</v>
-      </c>
-      <c r="E168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>4</v>
-      </c>
-      <c r="B169" t="s">
-        <v>53</v>
-      </c>
-      <c r="C169" t="s">
-        <v>166</v>
-      </c>
-      <c r="D169" t="s">
-        <v>165</v>
-      </c>
-      <c r="E169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>4</v>
-      </c>
-      <c r="B170" t="s">
-        <v>53</v>
-      </c>
-      <c r="C170" t="s">
-        <v>168</v>
-      </c>
-      <c r="D170" t="s">
-        <v>167</v>
-      </c>
-      <c r="E170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>4</v>
-      </c>
-      <c r="B171" t="s">
-        <v>169</v>
-      </c>
-      <c r="C171">
-        <v>1</v>
-      </c>
-      <c r="D171" t="s">
-        <v>50</v>
-      </c>
-      <c r="E171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>4</v>
-      </c>
-      <c r="B172" t="s">
-        <v>169</v>
-      </c>
-      <c r="C172">
-        <v>2</v>
-      </c>
-      <c r="D172" t="s">
-        <v>52</v>
-      </c>
-      <c r="E172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>4</v>
-      </c>
-      <c r="B173" t="s">
-        <v>169</v>
-      </c>
-      <c r="C173">
-        <v>4</v>
-      </c>
-      <c r="D173" t="s">
-        <v>55</v>
-      </c>
-      <c r="E173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>4</v>
-      </c>
-      <c r="B174" t="s">
-        <v>169</v>
-      </c>
-      <c r="C174">
-        <v>5</v>
-      </c>
-      <c r="D174" t="s">
-        <v>57</v>
-      </c>
-      <c r="E174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>4</v>
-      </c>
-      <c r="B175" t="s">
-        <v>169</v>
-      </c>
-      <c r="C175">
-        <v>6</v>
-      </c>
-      <c r="D175" t="s">
-        <v>59</v>
-      </c>
-      <c r="E175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>4</v>
-      </c>
-      <c r="B176" t="s">
-        <v>169</v>
-      </c>
-      <c r="C176">
-        <v>8</v>
-      </c>
-      <c r="D176" t="s">
-        <v>61</v>
-      </c>
-      <c r="E176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>4</v>
-      </c>
-      <c r="B177" t="s">
-        <v>169</v>
-      </c>
-      <c r="C177">
-        <v>9</v>
-      </c>
-      <c r="D177" t="s">
-        <v>63</v>
-      </c>
-      <c r="E177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>4</v>
-      </c>
-      <c r="B178" t="s">
-        <v>169</v>
-      </c>
-      <c r="C178">
-        <v>10</v>
-      </c>
-      <c r="D178" t="s">
-        <v>65</v>
-      </c>
-      <c r="E178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>4</v>
-      </c>
-      <c r="B179" t="s">
-        <v>169</v>
-      </c>
-      <c r="C179">
-        <v>11</v>
-      </c>
-      <c r="D179" t="s">
-        <v>67</v>
-      </c>
-      <c r="E179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>4</v>
-      </c>
-      <c r="B180" t="s">
-        <v>169</v>
-      </c>
-      <c r="C180">
-        <v>12</v>
-      </c>
-      <c r="D180" t="s">
-        <v>69</v>
-      </c>
-      <c r="E180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>4</v>
-      </c>
-      <c r="B181" t="s">
-        <v>169</v>
-      </c>
-      <c r="C181">
-        <v>13</v>
-      </c>
-      <c r="D181" t="s">
-        <v>71</v>
-      </c>
-      <c r="E181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>4</v>
-      </c>
-      <c r="B182" t="s">
-        <v>169</v>
-      </c>
-      <c r="C182">
-        <v>15</v>
-      </c>
-      <c r="D182" t="s">
-        <v>73</v>
-      </c>
-      <c r="E182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>4</v>
-      </c>
-      <c r="B183" t="s">
-        <v>169</v>
-      </c>
-      <c r="C183">
-        <v>16</v>
-      </c>
-      <c r="D183" t="s">
-        <v>75</v>
-      </c>
-      <c r="E183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>4</v>
-      </c>
-      <c r="B184" t="s">
-        <v>169</v>
-      </c>
-      <c r="C184">
-        <v>17</v>
-      </c>
-      <c r="D184" t="s">
-        <v>77</v>
-      </c>
-      <c r="E184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>4</v>
-      </c>
-      <c r="B185" t="s">
-        <v>169</v>
-      </c>
-      <c r="C185">
-        <v>18</v>
-      </c>
-      <c r="D185" t="s">
-        <v>79</v>
-      </c>
-      <c r="E185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>4</v>
-      </c>
-      <c r="B186" t="s">
-        <v>169</v>
-      </c>
-      <c r="C186">
-        <v>19</v>
-      </c>
-      <c r="D186" t="s">
-        <v>81</v>
-      </c>
-      <c r="E186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>4</v>
-      </c>
-      <c r="B187" t="s">
-        <v>169</v>
-      </c>
-      <c r="C187">
-        <v>20</v>
-      </c>
-      <c r="D187" t="s">
-        <v>83</v>
-      </c>
-      <c r="E187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>4</v>
-      </c>
-      <c r="B188" t="s">
-        <v>169</v>
-      </c>
-      <c r="C188">
-        <v>21</v>
-      </c>
-      <c r="D188" t="s">
-        <v>85</v>
-      </c>
-      <c r="E188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>4</v>
-      </c>
-      <c r="B189" t="s">
-        <v>169</v>
-      </c>
-      <c r="C189">
-        <v>22</v>
-      </c>
-      <c r="D189" t="s">
-        <v>87</v>
-      </c>
-      <c r="E189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>4</v>
-      </c>
-      <c r="B190" t="s">
-        <v>169</v>
-      </c>
-      <c r="C190">
-        <v>23</v>
-      </c>
-      <c r="D190" t="s">
-        <v>89</v>
-      </c>
-      <c r="E190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>4</v>
-      </c>
-      <c r="B191" t="s">
-        <v>169</v>
-      </c>
-      <c r="C191">
-        <v>24</v>
-      </c>
-      <c r="D191" t="s">
-        <v>91</v>
-      </c>
-      <c r="E191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>4</v>
-      </c>
-      <c r="B192" t="s">
-        <v>169</v>
-      </c>
-      <c r="C192">
-        <v>25</v>
-      </c>
-      <c r="D192" t="s">
-        <v>93</v>
-      </c>
-      <c r="E192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>4</v>
-      </c>
-      <c r="B193" t="s">
-        <v>169</v>
-      </c>
-      <c r="C193">
-        <v>26</v>
-      </c>
-      <c r="D193" t="s">
-        <v>95</v>
-      </c>
-      <c r="E193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>4</v>
-      </c>
-      <c r="B194" t="s">
-        <v>169</v>
-      </c>
-      <c r="C194">
-        <v>27</v>
-      </c>
-      <c r="D194" t="s">
-        <v>97</v>
-      </c>
-      <c r="E194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>4</v>
-      </c>
-      <c r="B195" t="s">
-        <v>169</v>
-      </c>
-      <c r="C195">
-        <v>28</v>
-      </c>
-      <c r="D195" t="s">
-        <v>99</v>
-      </c>
-      <c r="E195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>4</v>
-      </c>
-      <c r="B196" t="s">
-        <v>169</v>
-      </c>
-      <c r="C196">
-        <v>29</v>
-      </c>
-      <c r="D196" t="s">
-        <v>101</v>
-      </c>
-      <c r="E196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>4</v>
-      </c>
-      <c r="B197" t="s">
-        <v>169</v>
-      </c>
-      <c r="C197">
-        <v>30</v>
-      </c>
-      <c r="D197" t="s">
-        <v>103</v>
-      </c>
-      <c r="E197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>4</v>
-      </c>
-      <c r="B198" t="s">
-        <v>169</v>
-      </c>
-      <c r="C198">
-        <v>31</v>
-      </c>
-      <c r="D198" t="s">
-        <v>105</v>
-      </c>
-      <c r="E198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>4</v>
-      </c>
-      <c r="B199" t="s">
-        <v>169</v>
-      </c>
-      <c r="C199">
-        <v>32</v>
-      </c>
-      <c r="D199" t="s">
-        <v>107</v>
-      </c>
-      <c r="E199">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>4</v>
-      </c>
-      <c r="B200" t="s">
-        <v>169</v>
-      </c>
-      <c r="C200">
-        <v>33</v>
-      </c>
-      <c r="D200" t="s">
-        <v>109</v>
-      </c>
-      <c r="E200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>4</v>
-      </c>
-      <c r="B201" t="s">
-        <v>169</v>
-      </c>
-      <c r="C201">
-        <v>34</v>
-      </c>
-      <c r="D201" t="s">
-        <v>111</v>
-      </c>
-      <c r="E201">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>4</v>
-      </c>
-      <c r="B202" t="s">
-        <v>169</v>
-      </c>
-      <c r="C202">
-        <v>35</v>
-      </c>
-      <c r="D202" t="s">
-        <v>113</v>
-      </c>
-      <c r="E202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>4</v>
-      </c>
-      <c r="B203" t="s">
-        <v>169</v>
-      </c>
-      <c r="C203">
-        <v>36</v>
-      </c>
-      <c r="D203" t="s">
-        <v>115</v>
-      </c>
-      <c r="E203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>4</v>
-      </c>
-      <c r="B204" t="s">
-        <v>169</v>
-      </c>
-      <c r="C204">
-        <v>37</v>
-      </c>
-      <c r="D204" t="s">
-        <v>117</v>
-      </c>
-      <c r="E204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>4</v>
-      </c>
-      <c r="B205" t="s">
-        <v>169</v>
-      </c>
-      <c r="C205">
-        <v>38</v>
-      </c>
-      <c r="D205" t="s">
-        <v>119</v>
-      </c>
-      <c r="E205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>4</v>
-      </c>
-      <c r="B206" t="s">
-        <v>169</v>
-      </c>
-      <c r="C206">
-        <v>39</v>
-      </c>
-      <c r="D206" t="s">
-        <v>121</v>
-      </c>
-      <c r="E206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>4</v>
-      </c>
-      <c r="B207" t="s">
-        <v>169</v>
-      </c>
-      <c r="C207">
-        <v>40</v>
-      </c>
-      <c r="D207" t="s">
-        <v>123</v>
-      </c>
-      <c r="E207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>4</v>
-      </c>
-      <c r="B208" t="s">
-        <v>169</v>
-      </c>
-      <c r="C208">
-        <v>41</v>
-      </c>
-      <c r="D208" t="s">
-        <v>125</v>
-      </c>
-      <c r="E208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>4</v>
-      </c>
-      <c r="B209" t="s">
-        <v>169</v>
-      </c>
-      <c r="C209">
-        <v>42</v>
-      </c>
-      <c r="D209" t="s">
-        <v>127</v>
-      </c>
-      <c r="E209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>4</v>
-      </c>
-      <c r="B210" t="s">
-        <v>169</v>
-      </c>
-      <c r="C210">
-        <v>44</v>
-      </c>
-      <c r="D210" t="s">
-        <v>129</v>
-      </c>
-      <c r="E210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>4</v>
-      </c>
-      <c r="B211" t="s">
-        <v>169</v>
-      </c>
-      <c r="C211">
-        <v>45</v>
-      </c>
-      <c r="D211" t="s">
-        <v>131</v>
-      </c>
-      <c r="E211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>4</v>
-      </c>
-      <c r="B212" t="s">
-        <v>169</v>
-      </c>
-      <c r="C212">
-        <v>46</v>
-      </c>
-      <c r="D212" t="s">
-        <v>133</v>
-      </c>
-      <c r="E212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>4</v>
-      </c>
-      <c r="B213" t="s">
-        <v>169</v>
-      </c>
-      <c r="C213">
-        <v>47</v>
-      </c>
-      <c r="D213" t="s">
-        <v>135</v>
-      </c>
-      <c r="E213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>4</v>
-      </c>
-      <c r="B214" t="s">
-        <v>169</v>
-      </c>
-      <c r="C214">
-        <v>48</v>
-      </c>
-      <c r="D214" t="s">
-        <v>137</v>
-      </c>
-      <c r="E214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>4</v>
-      </c>
-      <c r="B215" t="s">
-        <v>169</v>
-      </c>
-      <c r="C215">
-        <v>49</v>
-      </c>
-      <c r="D215" t="s">
-        <v>139</v>
-      </c>
-      <c r="E215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>4</v>
-      </c>
-      <c r="B216" t="s">
-        <v>169</v>
-      </c>
-      <c r="C216">
-        <v>50</v>
-      </c>
-      <c r="D216" t="s">
-        <v>141</v>
-      </c>
-      <c r="E216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>4</v>
-      </c>
-      <c r="B217" t="s">
-        <v>169</v>
-      </c>
-      <c r="C217">
-        <v>51</v>
-      </c>
-      <c r="D217" t="s">
-        <v>143</v>
-      </c>
-      <c r="E217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>4</v>
-      </c>
-      <c r="B218" t="s">
-        <v>169</v>
-      </c>
-      <c r="C218">
-        <v>53</v>
-      </c>
-      <c r="D218" t="s">
-        <v>145</v>
-      </c>
-      <c r="E218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>4</v>
-      </c>
-      <c r="B219" t="s">
-        <v>169</v>
-      </c>
-      <c r="C219">
-        <v>54</v>
-      </c>
-      <c r="D219" t="s">
-        <v>147</v>
-      </c>
-      <c r="E219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>4</v>
-      </c>
-      <c r="B220" t="s">
-        <v>169</v>
-      </c>
-      <c r="C220">
-        <v>55</v>
-      </c>
-      <c r="D220" t="s">
-        <v>149</v>
-      </c>
-      <c r="E220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>4</v>
-      </c>
-      <c r="B221" t="s">
-        <v>169</v>
-      </c>
-      <c r="C221">
-        <v>56</v>
-      </c>
-      <c r="D221" t="s">
-        <v>151</v>
-      </c>
-      <c r="E221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>4</v>
-      </c>
-      <c r="B222" t="s">
-        <v>169</v>
-      </c>
-      <c r="C222">
-        <v>60</v>
-      </c>
-      <c r="D222" t="s">
-        <v>153</v>
-      </c>
-      <c r="E222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>4</v>
-      </c>
-      <c r="B223" t="s">
-        <v>169</v>
-      </c>
-      <c r="C223">
-        <v>64</v>
-      </c>
-      <c r="D223" t="s">
-        <v>155</v>
-      </c>
-      <c r="E223">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>4</v>
-      </c>
-      <c r="B224" t="s">
-        <v>169</v>
-      </c>
-      <c r="C224">
-        <v>66</v>
-      </c>
-      <c r="D224" t="s">
-        <v>157</v>
-      </c>
-      <c r="E224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>4</v>
-      </c>
-      <c r="B225" t="s">
-        <v>169</v>
-      </c>
-      <c r="C225">
-        <v>68</v>
-      </c>
-      <c r="D225" t="s">
-        <v>159</v>
-      </c>
-      <c r="E225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>4</v>
-      </c>
-      <c r="B226" t="s">
-        <v>169</v>
-      </c>
-      <c r="C226">
-        <v>69</v>
-      </c>
-      <c r="D226" t="s">
-        <v>161</v>
-      </c>
-      <c r="E226">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>4</v>
-      </c>
-      <c r="B227" t="s">
-        <v>169</v>
-      </c>
-      <c r="C227">
-        <v>70</v>
-      </c>
-      <c r="D227" t="s">
-        <v>163</v>
-      </c>
-      <c r="E227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>4</v>
-      </c>
-      <c r="B228" t="s">
-        <v>169</v>
-      </c>
-      <c r="C228">
-        <v>72</v>
-      </c>
-      <c r="D228" t="s">
-        <v>165</v>
-      </c>
-      <c r="E228">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>4</v>
-      </c>
-      <c r="B229" t="s">
-        <v>169</v>
-      </c>
-      <c r="C229">
-        <v>78</v>
-      </c>
-      <c r="D229" t="s">
-        <v>167</v>
-      </c>
-      <c r="E229">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>4</v>
-      </c>
-      <c r="B230" t="s">
-        <v>170</v>
-      </c>
-      <c r="C230">
-        <v>0</v>
-      </c>
-      <c r="D230" t="s">
-        <v>171</v>
-      </c>
-      <c r="E230">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>4</v>
-      </c>
-      <c r="B231" t="s">
-        <v>170</v>
-      </c>
-      <c r="C231">
-        <v>1</v>
-      </c>
-      <c r="D231" t="s">
-        <v>172</v>
-      </c>
-      <c r="E231">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>4</v>
-      </c>
-      <c r="B232" t="s">
-        <v>170</v>
-      </c>
-      <c r="C232">
-        <v>2</v>
-      </c>
-      <c r="D232" t="s">
-        <v>173</v>
-      </c>
-      <c r="E232">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>4</v>
-      </c>
-      <c r="B233" t="s">
-        <v>170</v>
-      </c>
-      <c r="C233">
-        <v>3</v>
-      </c>
-      <c r="D233" t="s">
-        <v>174</v>
-      </c>
-      <c r="E233">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>4</v>
-      </c>
-      <c r="B234" t="s">
-        <v>170</v>
-      </c>
-      <c r="C234">
-        <v>4</v>
-      </c>
-      <c r="D234" t="s">
-        <v>175</v>
-      </c>
-      <c r="E234">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>4</v>
-      </c>
-      <c r="B235" t="s">
-        <v>170</v>
-      </c>
-      <c r="C235">
-        <v>5</v>
-      </c>
-      <c r="D235" t="s">
-        <v>176</v>
-      </c>
-      <c r="E235">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>4</v>
-      </c>
-      <c r="B236" t="s">
-        <v>170</v>
-      </c>
-      <c r="C236">
-        <v>6</v>
-      </c>
-      <c r="D236" t="s">
-        <v>177</v>
-      </c>
-      <c r="E236">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>4</v>
-      </c>
-      <c r="B237" t="s">
-        <v>170</v>
-      </c>
-      <c r="C237">
-        <v>7</v>
-      </c>
-      <c r="D237" t="s">
-        <v>178</v>
-      </c>
-      <c r="E237">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>4</v>
-      </c>
-      <c r="B238" t="s">
-        <v>170</v>
-      </c>
-      <c r="C238">
-        <v>8</v>
-      </c>
-      <c r="D238" t="s">
-        <v>179</v>
-      </c>
-      <c r="E238">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>4</v>
-      </c>
-      <c r="B239" t="s">
-        <v>170</v>
-      </c>
-      <c r="C239">
-        <v>9</v>
-      </c>
-      <c r="D239" t="s">
-        <v>180</v>
-      </c>
-      <c r="E239">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>4</v>
-      </c>
-      <c r="B240" t="s">
-        <v>181</v>
-      </c>
-      <c r="C240">
-        <v>1</v>
-      </c>
-      <c r="D240" t="s">
-        <v>182</v>
-      </c>
-      <c r="E240" t="s">
-        <v>315</v>
-      </c>
-      <c r="F240" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>4</v>
-      </c>
-      <c r="B241" t="s">
-        <v>181</v>
-      </c>
-      <c r="C241">
-        <v>2</v>
-      </c>
-      <c r="D241" t="s">
-        <v>183</v>
-      </c>
-      <c r="E241" t="s">
-        <v>315</v>
-      </c>
-      <c r="F241" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>4</v>
-      </c>
-      <c r="B242" t="s">
-        <v>181</v>
-      </c>
-      <c r="C242">
-        <v>3</v>
-      </c>
-      <c r="D242" t="s">
-        <v>184</v>
-      </c>
-      <c r="E242" t="s">
-        <v>315</v>
-      </c>
-      <c r="F242" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>4</v>
-      </c>
-      <c r="B243" t="s">
-        <v>181</v>
-      </c>
-      <c r="C243">
-        <v>-3</v>
-      </c>
-      <c r="D243" t="s">
-        <v>185</v>
-      </c>
-      <c r="E243" t="s">
-        <v>315</v>
-      </c>
-      <c r="F243" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>4</v>
-      </c>
-      <c r="B244" t="s">
-        <v>186</v>
-      </c>
-      <c r="C244">
-        <v>1</v>
-      </c>
-      <c r="D244" t="s">
-        <v>187</v>
-      </c>
-      <c r="E244">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>4</v>
-      </c>
-      <c r="B245" t="s">
-        <v>186</v>
-      </c>
-      <c r="C245">
-        <v>2</v>
-      </c>
-      <c r="D245" t="s">
-        <v>188</v>
-      </c>
-      <c r="E245">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>4</v>
-      </c>
-      <c r="B246" t="s">
-        <v>186</v>
-      </c>
-      <c r="C246">
-        <v>3</v>
-      </c>
-      <c r="D246" t="s">
-        <v>189</v>
-      </c>
-      <c r="E246">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>4</v>
-      </c>
-      <c r="B247" t="s">
-        <v>186</v>
-      </c>
-      <c r="C247">
-        <v>-3</v>
-      </c>
-      <c r="D247" t="s">
-        <v>185</v>
-      </c>
-      <c r="E247">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>4</v>
-      </c>
-      <c r="B248" t="s">
-        <v>190</v>
-      </c>
-      <c r="C248">
-        <v>1</v>
-      </c>
-      <c r="D248" t="s">
-        <v>34</v>
-      </c>
-      <c r="E248" t="s">
-        <v>316</v>
-      </c>
-      <c r="F248" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>4</v>
-      </c>
-      <c r="B249" t="s">
-        <v>190</v>
-      </c>
-      <c r="C249">
-        <v>2</v>
-      </c>
-      <c r="D249" t="s">
-        <v>8</v>
-      </c>
-      <c r="E249" t="s">
-        <v>316</v>
-      </c>
-      <c r="F249" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>4</v>
-      </c>
-      <c r="B250" t="s">
-        <v>191</v>
-      </c>
-      <c r="C250">
-        <v>1</v>
-      </c>
-      <c r="D250" t="s">
-        <v>34</v>
-      </c>
-      <c r="E250">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>4</v>
-      </c>
-      <c r="B251" t="s">
-        <v>191</v>
-      </c>
-      <c r="C251">
-        <v>2</v>
-      </c>
-      <c r="D251" t="s">
-        <v>8</v>
-      </c>
-      <c r="E251">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>4</v>
-      </c>
-      <c r="B252" t="s">
-        <v>191</v>
-      </c>
-      <c r="C252">
-        <v>-1</v>
-      </c>
-      <c r="D252" t="s">
-        <v>9</v>
-      </c>
-      <c r="E252">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>4</v>
-      </c>
-      <c r="B253" t="s">
-        <v>191</v>
-      </c>
-      <c r="C253">
-        <v>-2</v>
-      </c>
-      <c r="D253" t="s">
-        <v>15</v>
-      </c>
-      <c r="E253">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>4</v>
-      </c>
-      <c r="B254" t="s">
-        <v>192</v>
-      </c>
-      <c r="C254">
-        <v>1</v>
-      </c>
-      <c r="D254" t="s">
-        <v>34</v>
-      </c>
-      <c r="E254">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>4</v>
-      </c>
-      <c r="B255" t="s">
-        <v>192</v>
-      </c>
-      <c r="C255">
-        <v>2</v>
-      </c>
-      <c r="D255" t="s">
-        <v>8</v>
-      </c>
-      <c r="E255">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>4</v>
-      </c>
-      <c r="B256" t="s">
-        <v>192</v>
-      </c>
-      <c r="C256">
-        <v>-1</v>
-      </c>
-      <c r="D256" t="s">
-        <v>9</v>
-      </c>
-      <c r="E256">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>4</v>
-      </c>
-      <c r="B257" t="s">
-        <v>192</v>
-      </c>
-      <c r="C257">
-        <v>-2</v>
-      </c>
-      <c r="D257" t="s">
-        <v>15</v>
-      </c>
-      <c r="E257">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>4</v>
-      </c>
-      <c r="B258" t="s">
-        <v>317</v>
-      </c>
-      <c r="C258">
-        <v>1</v>
-      </c>
-      <c r="D258" t="s">
-        <v>34</v>
-      </c>
-      <c r="E258">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>4</v>
-      </c>
-      <c r="B259" t="s">
-        <v>317</v>
-      </c>
-      <c r="C259">
-        <v>2</v>
-      </c>
-      <c r="D259" t="s">
-        <v>8</v>
-      </c>
-      <c r="E259">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
-        <v>4</v>
-      </c>
-      <c r="B260" t="s">
-        <v>194</v>
-      </c>
-      <c r="C260">
-        <v>11</v>
-      </c>
-      <c r="D260" t="s">
-        <v>195</v>
-      </c>
-      <c r="E260" t="s">
-        <v>318</v>
-      </c>
-      <c r="F260" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
-        <v>4</v>
-      </c>
-      <c r="B261" t="s">
-        <v>194</v>
-      </c>
-      <c r="C261">
-        <v>12</v>
-      </c>
-      <c r="D261" t="s">
-        <v>196</v>
-      </c>
-      <c r="E261" t="s">
-        <v>318</v>
-      </c>
-      <c r="F261" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
-        <v>4</v>
-      </c>
-      <c r="B262" t="s">
-        <v>194</v>
-      </c>
-      <c r="C262">
-        <v>13</v>
-      </c>
-      <c r="D262" t="s">
-        <v>197</v>
-      </c>
-      <c r="E262" t="s">
-        <v>318</v>
-      </c>
-      <c r="F262" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>4</v>
-      </c>
-      <c r="B263" t="s">
-        <v>194</v>
-      </c>
-      <c r="C263">
-        <v>21</v>
-      </c>
-      <c r="D263" t="s">
-        <v>198</v>
-      </c>
-      <c r="E263" t="s">
-        <v>318</v>
-      </c>
-      <c r="F263" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
-        <v>4</v>
-      </c>
-      <c r="B264" t="s">
-        <v>194</v>
-      </c>
-      <c r="C264">
-        <v>22</v>
-      </c>
-      <c r="D264" t="s">
-        <v>199</v>
-      </c>
-      <c r="E264" t="s">
-        <v>318</v>
-      </c>
-      <c r="F264" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
-        <v>4</v>
-      </c>
-      <c r="B265" t="s">
-        <v>194</v>
-      </c>
-      <c r="C265">
-        <v>23</v>
-      </c>
-      <c r="D265" t="s">
-        <v>200</v>
-      </c>
-      <c r="E265" t="s">
-        <v>318</v>
-      </c>
-      <c r="F265" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
-        <v>4</v>
-      </c>
-      <c r="B266" t="s">
-        <v>194</v>
-      </c>
-      <c r="C266">
-        <v>31</v>
-      </c>
-      <c r="D266" t="s">
-        <v>201</v>
-      </c>
-      <c r="E266" t="s">
-        <v>318</v>
-      </c>
-      <c r="F266" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
-        <v>4</v>
-      </c>
-      <c r="B267" t="s">
-        <v>194</v>
-      </c>
-      <c r="C267">
-        <v>32</v>
-      </c>
-      <c r="D267" t="s">
-        <v>202</v>
-      </c>
-      <c r="E267" t="s">
-        <v>318</v>
-      </c>
-      <c r="F267" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>4</v>
-      </c>
-      <c r="B268" t="s">
-        <v>194</v>
-      </c>
-      <c r="C268">
-        <v>33</v>
-      </c>
-      <c r="D268" t="s">
-        <v>203</v>
-      </c>
-      <c r="E268" t="s">
-        <v>318</v>
-      </c>
-      <c r="F268" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>4</v>
-      </c>
-      <c r="B269" t="s">
-        <v>194</v>
-      </c>
-      <c r="C269">
-        <v>41</v>
-      </c>
-      <c r="D269" t="s">
-        <v>204</v>
-      </c>
-      <c r="E269" t="s">
-        <v>318</v>
-      </c>
-      <c r="F269" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>4</v>
-      </c>
-      <c r="B270" t="s">
-        <v>194</v>
-      </c>
-      <c r="C270">
-        <v>42</v>
-      </c>
-      <c r="D270" t="s">
-        <v>205</v>
-      </c>
-      <c r="E270" t="s">
-        <v>318</v>
-      </c>
-      <c r="F270" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>4</v>
-      </c>
-      <c r="B271" t="s">
-        <v>194</v>
-      </c>
-      <c r="C271">
-        <v>43</v>
-      </c>
-      <c r="D271" t="s">
-        <v>206</v>
-      </c>
-      <c r="E271" t="s">
-        <v>318</v>
-      </c>
-      <c r="F271" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>4</v>
-      </c>
-      <c r="B272" t="s">
-        <v>194</v>
-      </c>
-      <c r="C272">
-        <v>-3</v>
-      </c>
-      <c r="D272" t="s">
-        <v>185</v>
-      </c>
-      <c r="E272" t="s">
-        <v>318</v>
-      </c>
-      <c r="F272" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>4</v>
-      </c>
-      <c r="B273" t="s">
-        <v>207</v>
-      </c>
-      <c r="C273">
-        <v>1</v>
-      </c>
-      <c r="D273" t="s">
-        <v>208</v>
-      </c>
-      <c r="E273">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
-        <v>4</v>
-      </c>
-      <c r="B274" t="s">
-        <v>207</v>
-      </c>
-      <c r="C274">
-        <v>2</v>
-      </c>
-      <c r="D274" t="s">
-        <v>209</v>
-      </c>
-      <c r="E274">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
-        <v>4</v>
-      </c>
-      <c r="B275" t="s">
-        <v>207</v>
-      </c>
-      <c r="C275">
-        <v>3</v>
-      </c>
-      <c r="D275" t="s">
-        <v>210</v>
-      </c>
-      <c r="E275">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>4</v>
-      </c>
-      <c r="B276" t="s">
-        <v>207</v>
-      </c>
-      <c r="C276">
-        <v>4</v>
-      </c>
-      <c r="D276" t="s">
-        <v>211</v>
-      </c>
-      <c r="E276">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>4</v>
-      </c>
-      <c r="B277" t="s">
-        <v>207</v>
-      </c>
-      <c r="C277">
-        <v>6</v>
-      </c>
-      <c r="D277" t="s">
-        <v>212</v>
-      </c>
-      <c r="E277">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
-        <v>4</v>
-      </c>
-      <c r="B278" t="s">
-        <v>207</v>
-      </c>
-      <c r="C278">
-        <v>9</v>
-      </c>
-      <c r="D278" t="s">
-        <v>213</v>
-      </c>
-      <c r="E278">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
-        <v>4</v>
-      </c>
-      <c r="B279" t="s">
-        <v>214</v>
-      </c>
-      <c r="C279">
-        <v>1</v>
-      </c>
-      <c r="D279" t="s">
-        <v>215</v>
-      </c>
-      <c r="E279">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
-        <v>4</v>
-      </c>
-      <c r="B280" t="s">
-        <v>214</v>
-      </c>
-      <c r="C280">
-        <v>2</v>
-      </c>
-      <c r="D280" t="s">
-        <v>216</v>
-      </c>
-      <c r="E280">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
-        <v>4</v>
-      </c>
-      <c r="B281" t="s">
-        <v>214</v>
-      </c>
-      <c r="C281">
-        <v>3</v>
-      </c>
-      <c r="D281" t="s">
-        <v>217</v>
-      </c>
-      <c r="E281">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
-        <v>4</v>
-      </c>
-      <c r="B282" t="s">
-        <v>214</v>
-      </c>
-      <c r="C282">
-        <v>4</v>
-      </c>
-      <c r="D282" t="s">
-        <v>218</v>
-      </c>
-      <c r="E282">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
-        <v>4</v>
-      </c>
-      <c r="B283" t="s">
-        <v>214</v>
-      </c>
-      <c r="C283">
-        <v>5</v>
-      </c>
-      <c r="D283" t="s">
-        <v>219</v>
-      </c>
-      <c r="E283">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>4</v>
-      </c>
-      <c r="B284" t="s">
-        <v>214</v>
-      </c>
-      <c r="C284">
-        <v>6</v>
-      </c>
-      <c r="D284" t="s">
-        <v>220</v>
-      </c>
-      <c r="E284">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
-        <v>4</v>
-      </c>
-      <c r="B285" t="s">
-        <v>214</v>
-      </c>
-      <c r="C285">
-        <v>-1</v>
-      </c>
-      <c r="D285" t="s">
-        <v>9</v>
-      </c>
-      <c r="E285">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
-        <v>4</v>
-      </c>
-      <c r="B286" t="s">
-        <v>214</v>
-      </c>
-      <c r="C286">
-        <v>-2</v>
-      </c>
-      <c r="D286" t="s">
-        <v>15</v>
-      </c>
-      <c r="E286">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
-        <v>4</v>
-      </c>
-      <c r="B287" t="s">
-        <v>321</v>
-      </c>
-      <c r="C287">
-        <v>1</v>
-      </c>
-      <c r="D287" t="s">
-        <v>222</v>
-      </c>
-      <c r="E287">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
-        <v>4</v>
-      </c>
-      <c r="B288" t="s">
-        <v>321</v>
-      </c>
-      <c r="C288">
-        <v>2</v>
-      </c>
-      <c r="D288" t="s">
-        <v>223</v>
-      </c>
-      <c r="E288">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
-        <v>4</v>
-      </c>
-      <c r="B289" t="s">
-        <v>224</v>
-      </c>
-      <c r="C289">
-        <v>1</v>
-      </c>
-      <c r="D289" t="s">
-        <v>225</v>
-      </c>
-      <c r="E289">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
-        <v>4</v>
-      </c>
-      <c r="B290" t="s">
-        <v>224</v>
-      </c>
-      <c r="C290">
-        <v>2</v>
-      </c>
-      <c r="D290" t="s">
-        <v>226</v>
-      </c>
-      <c r="E290">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
-        <v>4</v>
-      </c>
-      <c r="B291" t="s">
-        <v>224</v>
-      </c>
-      <c r="C291">
-        <v>3</v>
-      </c>
-      <c r="D291" t="s">
-        <v>227</v>
-      </c>
-      <c r="E291">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
-        <v>4</v>
-      </c>
-      <c r="B292" t="s">
-        <v>224</v>
-      </c>
-      <c r="C292">
-        <v>4</v>
-      </c>
-      <c r="D292" t="s">
-        <v>228</v>
-      </c>
-      <c r="E292">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
-        <v>4</v>
-      </c>
-      <c r="B293" t="s">
-        <v>224</v>
-      </c>
-      <c r="C293">
-        <v>5</v>
-      </c>
-      <c r="D293" t="s">
-        <v>229</v>
-      </c>
-      <c r="E293">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
-        <v>4</v>
-      </c>
-      <c r="B294" t="s">
-        <v>224</v>
-      </c>
-      <c r="C294">
-        <v>-1</v>
-      </c>
-      <c r="D294" t="s">
-        <v>9</v>
-      </c>
-      <c r="E294">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
-        <v>4</v>
-      </c>
-      <c r="B295" t="s">
-        <v>224</v>
-      </c>
-      <c r="C295">
-        <v>-2</v>
-      </c>
-      <c r="D295" t="s">
-        <v>15</v>
-      </c>
-      <c r="E295">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
-        <v>4</v>
-      </c>
-      <c r="B296" t="s">
-        <v>230</v>
-      </c>
-      <c r="C296">
-        <v>1</v>
-      </c>
-      <c r="D296" t="s">
-        <v>231</v>
-      </c>
-      <c r="E296" t="s">
-        <v>498</v>
-      </c>
-      <c r="F296" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
-        <v>4</v>
-      </c>
-      <c r="B297" t="s">
-        <v>230</v>
-      </c>
-      <c r="C297">
-        <v>2</v>
-      </c>
-      <c r="D297" t="s">
-        <v>232</v>
-      </c>
-      <c r="E297" t="s">
-        <v>498</v>
-      </c>
-      <c r="F297" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
-        <v>4</v>
-      </c>
-      <c r="B298" t="s">
-        <v>230</v>
-      </c>
-      <c r="C298">
-        <v>-2</v>
-      </c>
-      <c r="D298" t="s">
-        <v>15</v>
-      </c>
-      <c r="E298" t="s">
-        <v>498</v>
-      </c>
-      <c r="F298" t="s">
-        <v>498</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>